--- a/netzwerke/jung-wien/pivot-tables/jung-wien-alle-without-gaps_pivot.xlsx
+++ b/netzwerke/jung-wien/pivot-tables/jung-wien-alle-without-gaps_pivot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurauntner/schnitzler/schnitzler-briefe-charts/netzwerke/jung-wien/pivot-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB3E773-1AEA-BE4E-907D-4DAA5672D292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC564D93-71BF-9647-AF5B-2A38E8E49934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47200" yWindow="2380" windowWidth="32840" windowHeight="23340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46320" yWindow="2020" windowWidth="24680" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="1" r:id="rId1"/>
@@ -3149,7 +3149,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
